--- a/LISTA_DE_MATERIAIS/LISTA DE MATERIAIS SEMÁFARO-30-08-21.xlsx
+++ b/LISTA_DE_MATERIAIS/LISTA DE MATERIAIS SEMÁFARO-30-08-21.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oinetsrv\Google Drive\PROJETOS\2020 - 1 - CONTROLTECH\20 - PROJETO DISPLAY RF433MHZ\display_remoto_p10_arduino_RF_433MHZ\LISTA_DE_MATERIAIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD18F63E-1E5E-4226-A3AE-69F48E891E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2DD37C-032A-4050-9255-99C2FC1996D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,13 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mho0Q/5BDKkRbopwOTgC3vTnXklGg=="/>
     </ext>
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="37">
   <si>
     <t>COMPONENTES</t>
   </si>
@@ -168,6 +175,18 @@
   </si>
   <si>
     <t>ATUALIZAÇÃO DOS PREÇOS COM A COMPRA DOS COMPONETES EM: 30/08/2021</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1970131221-painel-eletrico-quadro-comando-500x400x250-c-nf-e-garantia-_JM#position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=b399de95-271f-44a5-b1e7-cd9469a61019</t>
+  </si>
+  <si>
+    <t>Painel Elétrico Quadro Comando 500x400x250</t>
+  </si>
+  <si>
+    <t>Semáforo Sinalizador Slim Led Verde Amarelo Vermelho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPRESSÃO ADESIVO </t>
   </si>
 </sst>
 </file>
@@ -568,13 +587,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>60961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1504950</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>15813</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -612,13 +631,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2453640</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3105150</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>54428</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -856,10 +875,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:J956"/>
+  <dimension ref="B1:J957"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2076,17 +2095,17 @@
         <v>178</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="H54" s="12">
         <v>1</v>
       </c>
       <c r="I54" s="20">
-        <v>295</v>
+        <v>495</v>
       </c>
       <c r="J54" s="22">
-        <f t="shared" ref="J54" si="5">I54*H54</f>
-        <v>295</v>
+        <f t="shared" ref="J54:J60" si="5">I54*H54</f>
+        <v>495</v>
       </c>
     </row>
     <row r="55" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2104,17 +2123,17 @@
         <v>180</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="H55" s="12">
         <v>1</v>
       </c>
       <c r="I55" s="20">
-        <v>180</v>
+        <v>415</v>
       </c>
       <c r="J55" s="22">
-        <f t="shared" ref="J55:J74" si="6">I55*H55</f>
-        <v>180</v>
+        <f t="shared" si="5"/>
+        <v>415</v>
       </c>
     </row>
     <row r="56" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2140,8 +2159,8 @@
       <c r="I56" s="13">
         <v>65</v>
       </c>
-      <c r="J56" s="14">
-        <f t="shared" si="6"/>
+      <c r="J56" s="22">
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
     </row>
@@ -2163,14 +2182,14 @@
         <v>18</v>
       </c>
       <c r="H57" s="21">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I57" s="14">
         <v>4.95</v>
       </c>
-      <c r="J57" s="14">
-        <f t="shared" si="6"/>
-        <v>247.5</v>
+      <c r="J57" s="22">
+        <f t="shared" si="5"/>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2191,14 +2210,14 @@
         <v>17</v>
       </c>
       <c r="H58" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I58" s="13">
-        <v>30</v>
-      </c>
-      <c r="J58" s="14">
-        <f t="shared" si="6"/>
-        <v>60</v>
+        <v>5</v>
+      </c>
+      <c r="J58" s="22">
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2216,17 +2235,17 @@
         <v>143.75</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H59" s="12">
         <v>1</v>
       </c>
       <c r="I59" s="20">
-        <v>143.75</v>
-      </c>
-      <c r="J59" s="14">
-        <f t="shared" si="6"/>
-        <v>143.75</v>
+        <v>120</v>
+      </c>
+      <c r="J59" s="22">
+        <f t="shared" si="5"/>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2244,17 +2263,17 @@
         <v>42.25</v>
       </c>
       <c r="G60" s="18" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="H60" s="21">
         <v>1</v>
       </c>
       <c r="I60" s="22">
-        <v>42.25</v>
-      </c>
-      <c r="J60" s="14">
-        <f t="shared" si="6"/>
-        <v>42.25</v>
+        <v>50</v>
+      </c>
+      <c r="J60" s="22">
+        <f t="shared" si="5"/>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2271,19 +2290,10 @@
         <f t="shared" si="4"/>
         <v>58.05</v>
       </c>
-      <c r="G61" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="H61" s="21">
-        <v>1</v>
-      </c>
-      <c r="I61" s="22">
-        <v>58.05</v>
-      </c>
-      <c r="J61" s="14">
-        <f t="shared" si="6"/>
-        <v>58.05</v>
-      </c>
+      <c r="G61" s="18"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="14"/>
     </row>
     <row r="62" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="18" t="s">
@@ -2299,19 +2309,10 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="G62" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="H62" s="12">
-        <v>1</v>
-      </c>
-      <c r="I62" s="20">
-        <v>12</v>
-      </c>
-      <c r="J62" s="14">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
+      <c r="G62" s="18"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="14"/>
     </row>
     <row r="63" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="11" t="s">
@@ -2327,19 +2328,10 @@
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="G63" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H63" s="12">
-        <v>1</v>
-      </c>
-      <c r="I63" s="13">
-        <v>120</v>
-      </c>
-      <c r="J63" s="14">
-        <f t="shared" si="6"/>
-        <v>120</v>
-      </c>
+      <c r="G63" s="11"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="14"/>
     </row>
     <row r="64" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="11" t="s">
@@ -2355,19 +2347,10 @@
         <f t="shared" si="4"/>
         <v>65</v>
       </c>
-      <c r="G64" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H64" s="12">
-        <v>1</v>
-      </c>
-      <c r="I64" s="13">
-        <v>65</v>
-      </c>
-      <c r="J64" s="14">
-        <f t="shared" si="6"/>
-        <v>65</v>
-      </c>
+      <c r="G64" s="11"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="14"/>
     </row>
     <row r="65" spans="2:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="11" t="s">
@@ -2383,19 +2366,10 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="G65" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H65" s="21">
-        <v>1</v>
-      </c>
-      <c r="I65" s="14">
-        <v>8</v>
-      </c>
-      <c r="J65" s="14">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
+      <c r="G65" s="11"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
     </row>
     <row r="66" spans="2:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="11" t="s">
@@ -2411,19 +2385,10 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="G66" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H66" s="21">
-        <v>1</v>
-      </c>
-      <c r="I66" s="14">
-        <v>15</v>
-      </c>
-      <c r="J66" s="14">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
+      <c r="G66" s="11"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
     </row>
     <row r="67" spans="2:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="11" t="s">
@@ -2439,19 +2404,10 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="G67" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H67" s="12">
-        <v>2</v>
-      </c>
-      <c r="I67" s="13">
-        <v>5</v>
-      </c>
-      <c r="J67" s="14">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
+      <c r="G67" s="11"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="14"/>
     </row>
     <row r="68" spans="2:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="11" t="s">
@@ -2467,19 +2423,10 @@
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="G68" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H68" s="21">
-        <v>1</v>
-      </c>
-      <c r="I68" s="14">
-        <v>40</v>
-      </c>
-      <c r="J68" s="14">
-        <f t="shared" si="6"/>
-        <v>40</v>
-      </c>
+      <c r="G68" s="11"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
     </row>
     <row r="69" spans="2:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="11" t="s">
@@ -2495,19 +2442,10 @@
         <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
-      <c r="G69" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H69" s="21">
-        <v>1</v>
-      </c>
-      <c r="I69" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="J69" s="14">
-        <f t="shared" si="6"/>
-        <v>4.5</v>
-      </c>
+      <c r="G69" s="11"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
     </row>
     <row r="70" spans="2:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="11" t="s">
@@ -2523,19 +2461,10 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="G70" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H70" s="12">
-        <v>1</v>
-      </c>
-      <c r="I70" s="13">
-        <v>15</v>
-      </c>
-      <c r="J70" s="14">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
+      <c r="G70" s="11"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="14"/>
     </row>
     <row r="71" spans="2:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="11" t="s">
@@ -2549,17 +2478,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G71" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="G71" s="11"/>
       <c r="H71" s="19"/>
-      <c r="I71" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="J71" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="I71" s="13"/>
+      <c r="J71" s="14"/>
     </row>
     <row r="72" spans="2:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="15" t="s">
@@ -2575,19 +2497,10 @@
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="G72" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H72" s="16">
-        <v>1</v>
-      </c>
-      <c r="I72" s="17">
-        <v>500</v>
-      </c>
-      <c r="J72" s="14">
-        <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
+      <c r="G72" s="15"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="14"/>
     </row>
     <row r="73" spans="2:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="11"/>
@@ -2600,10 +2513,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="13"/>
       <c r="I73" s="13"/>
-      <c r="J73" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="J73" s="14"/>
     </row>
     <row r="74" spans="2:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="11"/>
@@ -2616,10 +2526,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="19"/>
       <c r="I74" s="13"/>
-      <c r="J74" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="J74" s="14"/>
     </row>
     <row r="75" spans="2:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="18"/>
@@ -2644,17 +2551,21 @@
       <c r="I76" s="28"/>
       <c r="J76" s="6">
         <f>SUM(J54:J75)</f>
-        <v>1881.05</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="77" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
+    <row r="78" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="81" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="82" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="83" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2666,37 +2577,37 @@
     <row r="89" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="90" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="91" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="7"/>
-    </row>
-    <row r="93" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="8" t="s">
+    <row r="92" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="7"/>
+    </row>
+    <row r="94" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="9"/>
-    </row>
     <row r="95" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="23" t="s">
+      <c r="B95" s="9"/>
+    </row>
+    <row r="96" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="9"/>
-    </row>
     <row r="97" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="23" t="s">
+      <c r="B97" s="9"/>
+    </row>
+    <row r="98" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="23" t="s">
+    <row r="99" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="102" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="103" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3553,8 +3464,16 @@
     <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="H50:I50"/>
     <mergeCell ref="B52:E52"/>
     <mergeCell ref="C76:D76"/>
     <mergeCell ref="B27:E27"/>
@@ -3562,19 +3481,12 @@
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="H50:I50"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B95" r:id="rId1" location="position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=7baa11c9-f4e9-451e-9915-3c01e3f2f4e8" xr:uid="{AB190CF7-0E17-4926-A369-F7DC233CBFA4}"/>
-    <hyperlink ref="B93" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B97" r:id="rId3" location="position=1&amp;search_layout=stack&amp;type=pad&amp;tracking_id=7eeb7616-96c7-444c-a84e-c993ac2880a1&amp;is_advertising=true&amp;ad_domain=VQCATCORE_LST&amp;ad_position=1&amp;ad_click_id=OTY5YjllMWEtYWIyMy00NDQ5LWI3ZDgtNTZiMGE2MWU4YTI0" display="https://produto.mercadolivre.com.br/MLB-1732530343-cabo-de-rede-blindado-externo-internet-lan-cat5e-50-metros-_JM#position=1&amp;search_layout=stack&amp;type=pad&amp;tracking_id=7eeb7616-96c7-444c-a84e-c993ac2880a1&amp;is_advertising=true&amp;ad_domain=VQCATCORE_LST&amp;ad_position=1&amp;ad_click_id=OTY5YjllMWEtYWIyMy00NDQ5LWI3ZDgtNTZiMGE2MWU4YTI0" xr:uid="{B7CD9678-F816-42E1-9244-A5EEB99ECA16}"/>
-    <hyperlink ref="B99" r:id="rId4" location="searchVariation=79548126955&amp;position=6&amp;search_layout=grid&amp;type=item&amp;tracking_id=70ea9770-646c-4afe-9b2b-4f9b25d47584" xr:uid="{EA5E4BC5-01F5-40DB-889F-A80307E64049}"/>
+    <hyperlink ref="B96" r:id="rId1" location="position=6&amp;search_layout=stack&amp;type=item&amp;tracking_id=7baa11c9-f4e9-451e-9915-3c01e3f2f4e8" xr:uid="{AB190CF7-0E17-4926-A369-F7DC233CBFA4}"/>
+    <hyperlink ref="B94" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B98" r:id="rId3" location="position=1&amp;search_layout=stack&amp;type=pad&amp;tracking_id=7eeb7616-96c7-444c-a84e-c993ac2880a1&amp;is_advertising=true&amp;ad_domain=VQCATCORE_LST&amp;ad_position=1&amp;ad_click_id=OTY5YjllMWEtYWIyMy00NDQ5LWI3ZDgtNTZiMGE2MWU4YTI0" display="https://produto.mercadolivre.com.br/MLB-1732530343-cabo-de-rede-blindado-externo-internet-lan-cat5e-50-metros-_JM#position=1&amp;search_layout=stack&amp;type=pad&amp;tracking_id=7eeb7616-96c7-444c-a84e-c993ac2880a1&amp;is_advertising=true&amp;ad_domain=VQCATCORE_LST&amp;ad_position=1&amp;ad_click_id=OTY5YjllMWEtYWIyMy00NDQ5LWI3ZDgtNTZiMGE2MWU4YTI0" xr:uid="{B7CD9678-F816-42E1-9244-A5EEB99ECA16}"/>
+    <hyperlink ref="B100" r:id="rId4" location="searchVariation=79548126955&amp;position=6&amp;search_layout=grid&amp;type=item&amp;tracking_id=70ea9770-646c-4afe-9b2b-4f9b25d47584" xr:uid="{EA5E4BC5-01F5-40DB-889F-A80307E64049}"/>
   </hyperlinks>
   <pageMargins left="0.59055118110236227" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="28" orientation="portrait" r:id="rId5"/>
